--- a/Documentos/estructuraHistoriaClinica.xlsx
+++ b/Documentos/estructuraHistoriaClinica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\historiaclinica_g47c3team02\Documentos\Datos_Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\historiaclinica_g47c3team02\Documentos\Datos_Proyecto\ENTREGAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19C0C1A-5B73-4795-83D0-F935DE86A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8454F0F3-F9CA-4D88-8CF4-C2466C7D938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="926" xr2:uid="{FCCE2BE7-E310-4C7E-9058-27F4A7162B8C}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="159">
   <si>
     <t>}</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>Estos recuadros de acceso solo aparecen cuando se llama la página y desaparece si el médico le da la clave correcta y solo así le permitirá seleccionar opciones del menú, en caso contrario se avisa  clave invalida</t>
+  </si>
+  <si>
+    <t>Regresar a home</t>
   </si>
 </sst>
 </file>
@@ -1145,80 +1148,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1227,67 +1158,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -1315,6 +1198,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1326,6 +1212,123 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1813,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DDF7EC-BC7E-48E3-947E-2E30E9CAA953}">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,282 +1827,282 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="J6" s="16" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="J6" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="61"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="61"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="82"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="81"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="82"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="81"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="82"/>
-      <c r="K11" s="88" t="s">
+      <c r="H11" s="42"/>
+      <c r="K11" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="82"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="92"/>
+      <c r="H12" s="42"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="83"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="92"/>
+      <c r="H13" s="43"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="83"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="92"/>
+      <c r="H14" s="43"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="84"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="92"/>
+      <c r="H15" s="44"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="83"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="95"/>
+      <c r="H16" s="43"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="83"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="81"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="82"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="72"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="17"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="74"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="17"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="74"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="18"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="76"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2122,7 +2125,7 @@
   <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2138,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="28" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2153,10 +2156,10 @@
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2179,48 +2182,48 @@
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="34" t="s">
         <v>128</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="42">
+      <c r="E7" s="32"/>
+      <c r="F7" s="18">
         <v>11111111</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2266,8 +2269,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="84"/>
       <c r="J10" s="15" t="s">
         <v>59</v>
       </c>
@@ -2286,9 +2291,10 @@
       <c r="K11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2299,7 +2305,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2325,7 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="7"/>
@@ -2334,11 +2340,11 @@
       <c r="D5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="17" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="8"/>
@@ -2346,14 +2352,14 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="42">
+      <c r="D6" s="18">
         <v>11111111</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="18" t="s">
         <v>121</v>
       </c>
       <c r="H6" s="8"/>
@@ -2384,28 +2390,28 @@
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="68"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="93"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -2433,10 +2439,12 @@
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="84"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="25" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="8"/>
@@ -2451,11 +2459,12 @@
       <c r="H14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2466,7 +2475,7 @@
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G7"/>
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,10 +2502,10 @@
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2508,14 +2517,14 @@
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="17" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="7"/>
@@ -2526,14 +2535,14 @@
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="42">
+      <c r="D6" s="18">
         <v>11111111</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="18" t="s">
         <v>121</v>
       </c>
       <c r="H6" s="7"/>
@@ -2573,46 +2582,46 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="15" t="s">
         <v>139</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="84"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="70" t="s">
+      <c r="F10" s="94"/>
+      <c r="G10" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="59"/>
+      <c r="J10" s="94"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -2625,13 +2634,13 @@
         <v>77</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="69" t="s">
+      <c r="G11" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>77</v>
       </c>
       <c r="J11" s="7"/>
@@ -2655,8 +2664,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="84"/>
       <c r="I13" s="7"/>
       <c r="J13" s="15" t="s">
         <v>59</v>
@@ -2676,14 +2687,15 @@
       <c r="K14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2694,7 +2706,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F24" sqref="F24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,32 +2718,32 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="42">
+      <c r="C6" s="18">
         <v>11111111</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="18" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2749,118 +2761,123 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="32"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="78"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="33"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="34"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="80"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="33"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="34"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="80"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="35"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="36"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="33"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="34"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="33"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="34"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="80"/>
     </row>
     <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="35"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="36"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="32"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="33"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="34"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="33"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="34"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="35"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="36"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="49" t="s">
+      <c r="F24" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="84"/>
+      <c r="I24" s="25" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E9:I12"/>
     <mergeCell ref="E14:I17"/>
     <mergeCell ref="E19:I22"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2871,7 +2888,7 @@
   <dimension ref="C4:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,27 +2899,27 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="17"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="18"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2916,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD394969-B33F-4997-A4AB-0D1B13A041C5}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3200,9 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="E22" s="15" t="s">
         <v>59</v>
       </c>
@@ -3199,7 +3218,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,11 +3333,18 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="84"/>
       <c r="I14" s="15" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F14:G14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3327,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B37E55-C6E4-483A-80B9-2C4B7CFD7B88}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,10 +3371,10 @@
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -3528,10 +3554,15 @@
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="84"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3541,7 +3572,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,24 +3611,24 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="19" t="s">
         <v>77</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="19" t="s">
         <v>77</v>
       </c>
       <c r="K4" s="8"/>
@@ -3611,17 +3642,17 @@
         <v>77</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="19" t="s">
         <v>77</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="19" t="s">
         <v>77</v>
       </c>
       <c r="K5" s="8"/>
@@ -3635,17 +3666,17 @@
         <v>77</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="19" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="19" t="s">
         <v>77</v>
       </c>
       <c r="K6" s="8"/>
@@ -3659,17 +3690,17 @@
         <v>77</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="19" t="s">
         <v>77</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="19" t="s">
         <v>77</v>
       </c>
       <c r="K7" s="8"/>
@@ -3707,8 +3738,10 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="84"/>
       <c r="H10" s="7"/>
       <c r="I10" s="15" t="s">
         <v>59</v>
@@ -3729,16 +3762,19 @@
       <c r="K11" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F10:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E58BF-976F-4A1A-80E7-C3E7B0771C71}">
-  <dimension ref="C2:D9"/>
+  <dimension ref="C2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,39 +3784,39 @@
   <sheetData>
     <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="24" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3790,7 +3826,16 @@
         <v>59</v>
       </c>
     </row>
+    <row r="10" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="84"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3798,10 +3843,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7907B79-8F31-4D6B-8CF3-5EC29BD4A4A2}">
-  <dimension ref="C2:G17"/>
+  <dimension ref="C2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3814,120 +3859,128 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="19" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="15" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="18" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="84"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3938,7 +3991,7 @@
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,138 +4011,138 @@
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="32"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="34"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="34"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="34"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="80"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="34"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="34"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="34"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="34"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="34"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="80"/>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="34"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="80"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="36"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4110,8 +4163,10 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="84"/>
       <c r="I15" s="7"/>
       <c r="J15" s="15" t="s">
         <v>59</v>
@@ -4131,9 +4186,10 @@
       <c r="K16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:J13"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4141,10 +4197,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B703A62E-4004-4086-8C72-28935D5018D9}">
-  <dimension ref="C2:I11"/>
+  <dimension ref="C2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4158,76 +4214,84 @@
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="57" t="s">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="57"/>
-    </row>
-    <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="39" t="s">
+    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="41"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="84"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="37" t="s">
+    <row r="7" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="42" t="s">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
         <v>11111111</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I11" s="15" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="12" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="84"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentos/estructuraHistoriaClinica.xlsx
+++ b/Documentos/estructuraHistoriaClinica.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\historiaclinica_g47c3team02\Documentos\Datos_Proyecto\ENTREGAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\HistoriaClinicaC3\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8454F0F3-F9CA-4D88-8CF4-C2466C7D938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C731444-C153-4EA6-BFF4-448507AFA2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="926" xr2:uid="{FCCE2BE7-E310-4C7E-9058-27F4A7162B8C}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="926" activeTab="2" xr2:uid="{FCCE2BE7-E310-4C7E-9058-27F4A7162B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="controlAcceso" sheetId="15" r:id="rId1"/>
     <sheet name="Idpaciente" sheetId="1" r:id="rId2"/>
-    <sheet name="CausaConsulta" sheetId="2" r:id="rId3"/>
+    <sheet name="CausaConsulta_" sheetId="2" r:id="rId3"/>
     <sheet name="RevisionxSistemas" sheetId="3" r:id="rId4"/>
     <sheet name="SignosVitalesdeIngreso" sheetId="4" r:id="rId5"/>
     <sheet name="ExamenFisico" sheetId="5" r:id="rId6"/>
@@ -1816,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DDF7EC-BC7E-48E3-947E-2E30E9CAA953}">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -3217,14 +3217,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04940AA0-AD3E-4174-9B21-4A5AE39F0F7C}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="B2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
